--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/SOUTH_DAKOTA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/SOUTH_DAKOTA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6">
@@ -452,12 +452,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C9">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10">
@@ -509,12 +509,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -553,12 +553,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C15">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>MARQUÉS DE COMILLAS</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>METAPA</t>
+          <t>Metapa</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C26">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C28">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C29">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C30">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C31">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C32">
@@ -805,12 +805,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>GRAN MORELOS</t>
+          <t>Gran Morelos</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C40">
@@ -914,12 +914,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C41">
@@ -932,7 +932,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C42">
@@ -945,7 +945,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C43">
@@ -958,7 +958,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C44">
@@ -971,7 +971,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C45">
@@ -984,7 +984,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C46">
@@ -997,7 +997,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C47">
@@ -1010,12 +1010,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C48">
@@ -1028,7 +1028,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C49">
@@ -1041,7 +1041,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C50">
@@ -1054,7 +1054,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C51">
@@ -1067,7 +1067,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C52">
@@ -1080,7 +1080,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C53">
@@ -1093,12 +1093,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C54">
@@ -1111,7 +1111,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C55">
@@ -1124,7 +1124,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C56">
@@ -1137,7 +1137,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C57">
@@ -1150,12 +1150,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C58">
@@ -1168,7 +1168,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C59">
@@ -1181,7 +1181,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C60">
@@ -1194,7 +1194,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C61">
@@ -1207,7 +1207,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C62">
@@ -1220,7 +1220,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C63">
@@ -1233,7 +1233,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>TIMILPAN</t>
+          <t>Timilpan</t>
         </is>
       </c>
       <c r="C64">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C65">
@@ -1259,7 +1259,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C66">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TULTEPEC</t>
+          <t>Tultepec</t>
         </is>
       </c>
       <c r="C67">
@@ -1285,7 +1285,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C68">
@@ -1298,7 +1298,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1311,12 +1311,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C70">
@@ -1329,7 +1329,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C71">
@@ -1342,7 +1342,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C72">
@@ -1355,7 +1355,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C73">
@@ -1368,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C74">
@@ -1381,7 +1381,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C75">
@@ -1394,7 +1394,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C76">
@@ -1407,7 +1407,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C77">
@@ -1420,7 +1420,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C78">
@@ -1433,7 +1433,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C79">
@@ -1446,7 +1446,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C80">
@@ -1459,7 +1459,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C81">
@@ -1472,7 +1472,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C82">
@@ -1485,7 +1485,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C83">
@@ -1498,12 +1498,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C84">
@@ -1516,7 +1516,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C85">
@@ -1529,7 +1529,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C86">
@@ -1542,7 +1542,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C87">
@@ -1555,7 +1555,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C88">
@@ -1568,7 +1568,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C89">
@@ -1581,7 +1581,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C90">
@@ -1594,7 +1594,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C91">
@@ -1607,7 +1607,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>PILCAYA</t>
+          <t>Pilcaya</t>
         </is>
       </c>
       <c r="C92">
@@ -1620,7 +1620,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C93">
@@ -1633,7 +1633,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C94">
@@ -1646,7 +1646,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C95">
@@ -1659,7 +1659,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C96">
@@ -1672,7 +1672,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C97">
@@ -1685,7 +1685,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C98">
@@ -1698,7 +1698,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C99">
@@ -1711,12 +1711,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C100">
@@ -1729,7 +1729,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C101">
@@ -1742,7 +1742,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C102">
@@ -1755,7 +1755,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C103">
@@ -1768,7 +1768,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C104">
@@ -1781,7 +1781,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>XOCHIATIPAN</t>
+          <t>Xochiatipan</t>
         </is>
       </c>
       <c r="C105">
@@ -1794,7 +1794,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106">
@@ -1807,12 +1807,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C107">
@@ -1825,7 +1825,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C108">
@@ -1838,7 +1838,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C109">
@@ -1851,7 +1851,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C110">
@@ -1864,7 +1864,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C111">
@@ -1877,7 +1877,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C112">
@@ -1890,7 +1890,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C113">
@@ -1903,7 +1903,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>JUCHITLÁN</t>
+          <t>Juchitlán</t>
         </is>
       </c>
       <c r="C114">
@@ -1916,7 +1916,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C115">
@@ -1929,7 +1929,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C116">
@@ -1942,7 +1942,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>PONCITLÁN</t>
+          <t>Poncitlán</t>
         </is>
       </c>
       <c r="C117">
@@ -1955,7 +1955,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE ALEJANDRÍA</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C118">
@@ -1968,7 +1968,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C119">
@@ -1981,7 +1981,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C120">
@@ -1994,7 +1994,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C121">
@@ -2007,7 +2007,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>TEUCHITLÁN</t>
+          <t>Teuchitlán</t>
         </is>
       </c>
       <c r="C122">
@@ -2020,7 +2020,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C123">
@@ -2033,7 +2033,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C124">
@@ -2046,7 +2046,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C125">
@@ -2059,7 +2059,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C126">
@@ -2072,7 +2072,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C127">
@@ -2085,12 +2085,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C128">
@@ -2103,7 +2103,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C129">
@@ -2116,7 +2116,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C130">
@@ -2129,7 +2129,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C131">
@@ -2142,7 +2142,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C132">
@@ -2155,7 +2155,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C133">
@@ -2168,7 +2168,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C134">
@@ -2181,7 +2181,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>PURÉPERO</t>
+          <t>Purépero</t>
         </is>
       </c>
       <c r="C135">
@@ -2194,7 +2194,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>Tarímbaro</t>
         </is>
       </c>
       <c r="C136">
@@ -2207,7 +2207,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TLAZAZALCA</t>
+          <t>Tlazazalca</t>
         </is>
       </c>
       <c r="C137">
@@ -2220,7 +2220,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C138">
@@ -2233,7 +2233,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C139">
@@ -2246,7 +2246,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C140">
@@ -2259,7 +2259,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C141">
@@ -2272,12 +2272,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C142">
@@ -2290,7 +2290,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>Miacatlán</t>
         </is>
       </c>
       <c r="C143">
@@ -2303,7 +2303,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C144">
@@ -2316,12 +2316,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ACAPONETA</t>
+          <t>Acaponeta</t>
         </is>
       </c>
       <c r="C145">
@@ -2334,7 +2334,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C146">
@@ -2347,7 +2347,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C147">
@@ -2360,7 +2360,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C148">
@@ -2373,7 +2373,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C149">
@@ -2386,7 +2386,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C150">
@@ -2399,12 +2399,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C151">
@@ -2417,7 +2417,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C152">
@@ -2430,12 +2430,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C153">
@@ -2448,7 +2448,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C154">
@@ -2461,7 +2461,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C155">
@@ -2474,7 +2474,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>SAN ANTONINO EL ALTO</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C156">
@@ -2487,7 +2487,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>SAN ANTONIO TEPETLAPA</t>
+          <t>San Antonio Tepetlapa</t>
         </is>
       </c>
       <c r="C157">
@@ -2500,7 +2500,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>San Carlos Yautepec</t>
         </is>
       </c>
       <c r="C158">
@@ -2513,7 +2513,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>SAN LORENZO TEXMELÚCAN</t>
+          <t>San Lorenzo Texmelúcan</t>
         </is>
       </c>
       <c r="C159">
@@ -2526,7 +2526,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>SAN MIGUEL ALOÁPAM</t>
+          <t>San Miguel Aloápam</t>
         </is>
       </c>
       <c r="C160">
@@ -2539,7 +2539,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>SAN PEDRO TOTOLÁPAM</t>
+          <t>San Pedro Totolápam</t>
         </is>
       </c>
       <c r="C161">
@@ -2552,7 +2552,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>SANTA MARÍA XADANI</t>
+          <t>Santa María Xadani</t>
         </is>
       </c>
       <c r="C162">
@@ -2565,7 +2565,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C163">
@@ -2578,7 +2578,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C164">
@@ -2591,7 +2591,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>VILLA DE ETLA</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C165">
@@ -2604,7 +2604,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C166">
@@ -2617,7 +2617,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C167">
@@ -2630,12 +2630,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C168">
@@ -2648,7 +2648,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C169">
@@ -2661,7 +2661,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>COATZINGO</t>
+          <t>Coatzingo</t>
         </is>
       </c>
       <c r="C170">
@@ -2674,7 +2674,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C171">
@@ -2687,7 +2687,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C172">
@@ -2700,7 +2700,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C173">
@@ -2713,7 +2713,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C174">
@@ -2726,7 +2726,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C175">
@@ -2739,7 +2739,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>TEOTLALCO</t>
+          <t>Teotlalco</t>
         </is>
       </c>
       <c r="C176">
@@ -2752,7 +2752,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C177">
@@ -2765,7 +2765,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C178">
@@ -2778,7 +2778,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C179">
@@ -2791,7 +2791,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C180">
@@ -2804,7 +2804,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C181">
@@ -2817,7 +2817,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C182">
@@ -2830,7 +2830,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C183">
@@ -2843,12 +2843,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C184">
@@ -2861,7 +2861,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>PEDRO ESCOBEDO</t>
+          <t>Pedro Escobedo</t>
         </is>
       </c>
       <c r="C185">
@@ -2874,7 +2874,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C186">
@@ -2887,7 +2887,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C187">
@@ -2900,12 +2900,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C188">
@@ -2918,7 +2918,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C189">
@@ -2931,7 +2931,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C190">
@@ -2944,7 +2944,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C191">
@@ -2957,7 +2957,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C192">
@@ -2970,7 +2970,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C193">
@@ -2983,7 +2983,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>TIERRA NUEVA</t>
+          <t>Tierra Nueva</t>
         </is>
       </c>
       <c r="C194">
@@ -2996,7 +2996,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C195">
@@ -3009,7 +3009,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C196">
@@ -3022,12 +3022,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C197">
@@ -3040,7 +3040,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C198">
@@ -3053,12 +3053,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C199">
@@ -3071,7 +3071,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C200">
@@ -3084,12 +3084,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C201">
@@ -3102,7 +3102,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C202">
@@ -3115,7 +3115,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C203">
@@ -3128,7 +3128,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C204">
@@ -3141,7 +3141,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C205">
@@ -3154,7 +3154,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C206">
@@ -3167,12 +3167,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C207">
@@ -3185,7 +3185,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>CARRILLO PUERTO</t>
+          <t>Carrillo Puerto</t>
         </is>
       </c>
       <c r="C208">
@@ -3198,7 +3198,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>COACOATZINTLA</t>
+          <t>Coacoatzintla</t>
         </is>
       </c>
       <c r="C209">
@@ -3211,7 +3211,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C210">
@@ -3224,7 +3224,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>IXHUACÁN DE LOS REYES</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C211">
@@ -3237,7 +3237,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C212">
@@ -3250,7 +3250,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C213">
@@ -3263,7 +3263,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C214">
@@ -3276,7 +3276,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C215">
@@ -3289,7 +3289,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C216">
@@ -3302,7 +3302,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C217">
@@ -3315,7 +3315,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C218">
@@ -3328,7 +3328,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C219">
@@ -3341,7 +3341,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C220">
@@ -3354,12 +3354,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C221">
@@ -3372,7 +3372,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C222">
@@ -3385,7 +3385,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C223">
@@ -3398,7 +3398,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C224">
@@ -3411,7 +3411,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C225">
@@ -3419,41 +3419,6 @@
       </c>
       <c r="D225">
         <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/SOUTH_DAKOTA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/SOUTH_DAKOTA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -969,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -982,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>León</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1566,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1579,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1779,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Xochiatipan</t>
@@ -1792,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1836,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1849,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -1862,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1875,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1888,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1901,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Juchitlán</t>
@@ -1914,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1927,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1940,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -1953,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1966,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1979,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1992,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -2005,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -2018,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2031,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -2044,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2057,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2101,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -2114,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -2127,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -2140,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2153,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -2166,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2179,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -2192,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -2205,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tlazazalca</t>
@@ -2218,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -2231,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2244,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2257,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2288,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -2301,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2332,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -2345,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -2358,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2371,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2384,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2415,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2446,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -2459,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -2472,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -2485,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>San Antonio Tepetlapa</t>
@@ -2498,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -2511,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -2524,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>San Miguel Aloápam</t>
@@ -2537,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>San Pedro Totolápam</t>
@@ -2550,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Santa María Xadani</t>
@@ -2563,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2576,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2589,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -2602,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -2615,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2646,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -2659,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -2672,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -2685,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -2698,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2711,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -2724,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2737,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Teotlalco</t>
@@ -2750,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2763,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2776,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2789,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2802,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2815,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2828,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2859,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -2872,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2885,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2916,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2929,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2942,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -2955,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -2968,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -2981,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -2994,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3007,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3038,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3069,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3100,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -3113,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -3126,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -3139,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3152,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3183,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -3196,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Coacoatzintla</t>
@@ -3209,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -3222,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Ixhuacán De Los Reyes</t>
@@ -3235,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -3248,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -3261,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3274,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -3287,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -3300,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3313,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -3326,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3339,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3370,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -3383,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -3396,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Total</t>
